--- a/data/trans_orig/P33b_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C56B70-716A-4442-B3A4-9A51AA92F09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72375FA0-1BCC-4C8D-A11F-429F89447FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA0B45FA-2F5F-434A-91B0-A4A417697742}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8310E5FF-9E55-429F-B0C8-F23ACB120EED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>28,31%</t>
   </si>
   <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
   </si>
   <si>
     <t>39,13%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>34,86%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>71,69%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
   </si>
   <si>
     <t>65,14%</t>
   </si>
   <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>11,85%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>15,96%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>84,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +188,109 @@
     <t>11,16%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D98862-B4C7-4E8B-A85E-CF085F9E7A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9664518-8C04-4F50-A0FE-BE5B4F01204F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1023,10 +1017,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,28 +1035,28 @@
         <v>1904807</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2320</v>
       </c>
       <c r="I8" s="7">
-        <v>1850081</v>
+        <v>1850082</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4033</v>
@@ -1071,13 +1065,13 @@
         <v>3754889</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1104,7 +1098,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1133,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1145,13 +1139,13 @@
         <v>75120</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -1160,13 +1154,13 @@
         <v>100702</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -1175,13 +1169,13 @@
         <v>175822</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>597919</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>853</v>
@@ -1211,13 +1205,13 @@
         <v>613184</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1457</v>
@@ -1226,13 +1220,13 @@
         <v>1211104</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1294,13 @@
         <v>484581</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1307</v>
@@ -1315,13 +1309,13 @@
         <v>826145</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1859</v>
@@ -1330,13 +1324,13 @@
         <v>1310726</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>2891037</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4044</v>
@@ -1366,28 +1360,28 @@
         <v>2970453</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6855</v>
       </c>
       <c r="N14" s="7">
-        <v>5861490</v>
+        <v>5861489</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,7 +1423,7 @@
         <v>8714</v>
       </c>
       <c r="N15" s="7">
-        <v>7172216</v>
+        <v>7172215</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72375FA0-1BCC-4C8D-A11F-429F89447FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B698C48A-ECFD-4BEC-9A92-23539B44D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8310E5FF-9E55-429F-B0C8-F23ACB120EED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FFD2055-3D9B-4DFC-A1F2-2358F93E279E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9664518-8C04-4F50-A0FE-BE5B4F01204F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96320E3B-519F-4841-A83B-A838E6BF957F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B698C48A-ECFD-4BEC-9A92-23539B44D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC063A8-150B-484F-8709-22CBA66B0EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FFD2055-3D9B-4DFC-A1F2-2358F93E279E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A139ED29-AAA7-4DA8-ACEB-7512F8964476}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>28,31%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>39,13%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>34,86%</t>
   </si>
   <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>71,69%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>65,14%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,55 @@
     <t>11,85%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>84,04%</t>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,109 +194,109 @@
     <t>11,16%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96320E3B-519F-4841-A83B-A838E6BF957F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D5DD15-C1ED-48F2-A010-0FDA15AA06F5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1017,10 +1023,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,28 +1041,28 @@
         <v>1904807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2320</v>
       </c>
       <c r="I8" s="7">
-        <v>1850082</v>
+        <v>1850081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4033</v>
@@ -1065,13 +1071,13 @@
         <v>3754889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1145,13 @@
         <v>75120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -1154,13 +1160,13 @@
         <v>100702</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -1169,13 +1175,13 @@
         <v>175822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1196,13 @@
         <v>597919</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>853</v>
@@ -1205,13 +1211,13 @@
         <v>613184</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1457</v>
@@ -1220,13 +1226,13 @@
         <v>1211104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1300,13 @@
         <v>484581</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1307</v>
@@ -1309,13 +1315,13 @@
         <v>826145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1859</v>
@@ -1324,13 +1330,13 @@
         <v>1310726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1351,13 @@
         <v>2891037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4044</v>
@@ -1360,28 +1366,28 @@
         <v>2970453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6855</v>
       </c>
       <c r="N14" s="7">
-        <v>5861489</v>
+        <v>5861490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,7 +1429,7 @@
         <v>8714</v>
       </c>
       <c r="N15" s="7">
-        <v>7172215</v>
+        <v>7172216</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC063A8-150B-484F-8709-22CBA66B0EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2197F54-3BF2-42CF-AC8A-E32F1E8501D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A139ED29-AAA7-4DA8-ACEB-7512F8964476}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A6544670-7737-45AE-AF65-9BC91E971154}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>89,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D5DD15-C1ED-48F2-A010-0FDA15AA06F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EC9A2F-0F9A-4759-8ED9-310A03BABB77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>197</v>
       </c>
       <c r="D4" s="7">
-        <v>153323</v>
+        <v>141545</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>555</v>
       </c>
       <c r="I4" s="7">
-        <v>326004</v>
+        <v>289770</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>752</v>
       </c>
       <c r="N4" s="7">
-        <v>479327</v>
+        <v>431316</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>494</v>
       </c>
       <c r="D5" s="7">
-        <v>388311</v>
+        <v>373393</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>871</v>
       </c>
       <c r="I5" s="7">
-        <v>507187</v>
+        <v>463398</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1365</v>
       </c>
       <c r="N5" s="7">
-        <v>895497</v>
+        <v>836791</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2117</v>
       </c>
       <c r="N6" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>278</v>
       </c>
       <c r="D7" s="7">
-        <v>256138</v>
+        <v>240284</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>601</v>
       </c>
       <c r="I7" s="7">
-        <v>399439</v>
+        <v>364897</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>879</v>
       </c>
       <c r="N7" s="7">
-        <v>655577</v>
+        <v>605181</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1713</v>
       </c>
       <c r="D8" s="7">
-        <v>1904807</v>
+        <v>2049013</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2320</v>
       </c>
       <c r="I8" s="7">
-        <v>1850081</v>
+        <v>1872926</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>4033</v>
       </c>
       <c r="N8" s="7">
-        <v>3754889</v>
+        <v>3921940</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410466</v>
+        <v>4527121</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>75120</v>
+        <v>71966</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>151</v>
       </c>
       <c r="I10" s="7">
-        <v>100702</v>
+        <v>92501</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>228</v>
       </c>
       <c r="N10" s="7">
-        <v>175822</v>
+        <v>164467</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>604</v>
       </c>
       <c r="D11" s="7">
-        <v>597919</v>
+        <v>574657</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>853</v>
       </c>
       <c r="I11" s="7">
-        <v>613184</v>
+        <v>567962</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1457</v>
       </c>
       <c r="N11" s="7">
-        <v>1211104</v>
+        <v>1142619</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>552</v>
       </c>
       <c r="D13" s="7">
-        <v>484581</v>
+        <v>453796</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>1307</v>
       </c>
       <c r="I13" s="7">
-        <v>826145</v>
+        <v>747169</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>1859</v>
       </c>
       <c r="N13" s="7">
-        <v>1310726</v>
+        <v>1200964</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>2811</v>
       </c>
       <c r="D14" s="7">
-        <v>2891037</v>
+        <v>2997063</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>4044</v>
       </c>
       <c r="I14" s="7">
-        <v>2970453</v>
+        <v>2904286</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>6855</v>
       </c>
       <c r="N14" s="7">
-        <v>5861490</v>
+        <v>5901350</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375618</v>
+        <v>3450859</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5351</v>
       </c>
       <c r="I15" s="7">
-        <v>3796598</v>
+        <v>3651455</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8714</v>
       </c>
       <c r="N15" s="7">
-        <v>7172216</v>
+        <v>7102314</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
